--- a/team_specific_matrix/North Ala._B.xlsx
+++ b/team_specific_matrix/North Ala._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2262295081967213</v>
+        <v>0.2205128205128205</v>
       </c>
       <c r="C2">
-        <v>0.4918032786885246</v>
+        <v>0.4948717948717949</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01311475409836066</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1901639344262295</v>
+        <v>0.1897435897435897</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07868852459016394</v>
+        <v>0.08205128205128205</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03164556962025317</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="C3">
-        <v>0.0379746835443038</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04430379746835443</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7088607594936709</v>
+        <v>0.7128712871287128</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1772151898734177</v>
+        <v>0.1831683168316832</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8571428571428571</v>
+        <v>0.7796610169491526</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1428571428571428</v>
+        <v>0.2033898305084746</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1118421052631579</v>
+        <v>0.095</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0131578947368421</v>
+        <v>0.015</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07236842105263158</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2039473684210526</v>
+        <v>0.22</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006578947368421052</v>
+        <v>0.015</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1578947368421053</v>
+        <v>0.16</v>
       </c>
       <c r="R6">
-        <v>0.07894736842105263</v>
+        <v>0.075</v>
       </c>
       <c r="S6">
-        <v>0.3552631578947368</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1411042944785276</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0245398773006135</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.049079754601227</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1411042944785276</v>
+        <v>0.1435185185185185</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01226993865030675</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1349693251533742</v>
+        <v>0.125</v>
       </c>
       <c r="R7">
-        <v>0.09202453987730061</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S7">
-        <v>0.4049079754601227</v>
+        <v>0.3981481481481481</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1260053619302949</v>
+        <v>0.1257606490872211</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.032171581769437</v>
+        <v>0.03042596348884381</v>
       </c>
       <c r="E8">
-        <v>0.005361930294906166</v>
+        <v>0.004056795131845842</v>
       </c>
       <c r="F8">
-        <v>0.06702412868632708</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09919571045576407</v>
+        <v>0.1095334685598377</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02412868632707775</v>
+        <v>0.02434077079107505</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1715817694369973</v>
+        <v>0.1744421906693712</v>
       </c>
       <c r="R8">
-        <v>0.1018766756032172</v>
+        <v>0.09127789046653144</v>
       </c>
       <c r="S8">
-        <v>0.3726541554959786</v>
+        <v>0.3813387423935091</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.15</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0125</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08125</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0625</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.175</v>
+        <v>0.1560975609756098</v>
       </c>
       <c r="R9">
-        <v>0.075</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="S9">
-        <v>0.41875</v>
+        <v>0.4048780487804878</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1303879310344828</v>
+        <v>0.1246031746031746</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02370689655172414</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007936507936507937</v>
       </c>
       <c r="F10">
-        <v>0.0603448275862069</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1239224137931035</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0290948275862069</v>
+        <v>0.0253968253968254</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2306034482758621</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="R10">
-        <v>0.07543103448275862</v>
+        <v>0.07698412698412699</v>
       </c>
       <c r="S10">
-        <v>0.3265086206896552</v>
+        <v>0.3452380952380952</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1515151515151515</v>
+        <v>0.1508196721311476</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08225108225108226</v>
+        <v>0.07868852459016394</v>
       </c>
       <c r="K11">
-        <v>0.1861471861471861</v>
+        <v>0.1836065573770492</v>
       </c>
       <c r="L11">
-        <v>0.5757575757575758</v>
+        <v>0.5836065573770491</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004329004329004329</v>
+        <v>0.003278688524590164</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7985611510791367</v>
+        <v>0.7914438502673797</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1366906474820144</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="K12">
-        <v>0.007194244604316547</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="L12">
-        <v>0.02877697841726619</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02877697841726619</v>
+        <v>0.0267379679144385</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6756756756756757</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2972972972972973</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006097560975609756</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1646341463414634</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="I15">
-        <v>0.09146341463414634</v>
+        <v>0.08444444444444445</v>
       </c>
       <c r="J15">
-        <v>0.3048780487804878</v>
+        <v>0.3244444444444444</v>
       </c>
       <c r="K15">
-        <v>0.06097560975609756</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01829268292682927</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06097560975609756</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2926829268292683</v>
+        <v>0.2977777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.004975124378109453</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1890547263681592</v>
+        <v>0.1945525291828794</v>
       </c>
       <c r="I16">
-        <v>0.0845771144278607</v>
+        <v>0.09727626459143969</v>
       </c>
       <c r="J16">
-        <v>0.3830845771144278</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="K16">
-        <v>0.1293532338308458</v>
+        <v>0.1245136186770428</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01492537313432836</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05472636815920398</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1393034825870647</v>
+        <v>0.1439688715953307</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0169971671388102</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2294617563739377</v>
+        <v>0.20995670995671</v>
       </c>
       <c r="I17">
-        <v>0.07932011331444759</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="J17">
-        <v>0.3937677053824363</v>
+        <v>0.4199134199134199</v>
       </c>
       <c r="K17">
-        <v>0.09915014164305949</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0169971671388102</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N17">
-        <v>0.0028328611898017</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="O17">
-        <v>0.0594900849858357</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1019830028328612</v>
+        <v>0.1103896103896104</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2465753424657534</v>
+        <v>0.2435233160621762</v>
       </c>
       <c r="I18">
-        <v>0.0958904109589041</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="J18">
-        <v>0.4178082191780822</v>
+        <v>0.4404145077720207</v>
       </c>
       <c r="K18">
-        <v>0.0958904109589041</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0136986301369863</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0136986301369863</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1164383561643836</v>
+        <v>0.09326424870466321</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01196953210010881</v>
+        <v>0.01354581673306773</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2110990206746464</v>
+        <v>0.2127490039840637</v>
       </c>
       <c r="I19">
-        <v>0.09357997823721437</v>
+        <v>0.08685258964143426</v>
       </c>
       <c r="J19">
-        <v>0.366702937976061</v>
+        <v>0.3657370517928287</v>
       </c>
       <c r="K19">
-        <v>0.1055495103373232</v>
+        <v>0.1083665338645418</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0250272034820457</v>
+        <v>0.02310756972111554</v>
       </c>
       <c r="N19">
-        <v>0.002176278563656148</v>
+        <v>0.001593625498007968</v>
       </c>
       <c r="O19">
-        <v>0.06311207834602829</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1207834602829162</v>
+        <v>0.1203187250996016</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Ala._B.xlsx
+++ b/team_specific_matrix/North Ala._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2205128205128205</v>
+        <v>0.2147971360381861</v>
       </c>
       <c r="C2">
-        <v>0.4948717948717949</v>
+        <v>0.5083532219570406</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01282051282051282</v>
+        <v>0.01193317422434368</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1897435897435897</v>
+        <v>0.1813842482100239</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08205128205128205</v>
+        <v>0.08353221957040573</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02475247524752475</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="C3">
-        <v>0.0396039603960396</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0396039603960396</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7128712871287128</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1831683168316832</v>
+        <v>0.1801801801801802</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7796610169491526</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2033898305084746</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.095</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.015</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07000000000000001</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.22</v>
+        <v>0.213953488372093</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.015</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.16</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="R6">
-        <v>0.075</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="S6">
-        <v>0.35</v>
+        <v>0.3627906976744186</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1481481481481481</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03240740740740741</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04629629629629629</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1435185185185185</v>
+        <v>0.15</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01388888888888889</v>
+        <v>0.0125</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.125</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="R7">
-        <v>0.09259259259259259</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="S7">
-        <v>0.3981481481481481</v>
+        <v>0.4041666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1257606490872211</v>
+        <v>0.1332046332046332</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03042596348884381</v>
+        <v>0.02895752895752896</v>
       </c>
       <c r="E8">
-        <v>0.004056795131845842</v>
+        <v>0.003861003861003861</v>
       </c>
       <c r="F8">
-        <v>0.05882352941176471</v>
+        <v>0.05791505791505792</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1095334685598377</v>
+        <v>0.1061776061776062</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02434077079107505</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1744421906693712</v>
+        <v>0.1718146718146718</v>
       </c>
       <c r="R8">
-        <v>0.09127789046653144</v>
+        <v>0.09266409266409266</v>
       </c>
       <c r="S8">
-        <v>0.3813387423935091</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1414634146341463</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02926829268292683</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08780487804878048</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07317073170731707</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02439024390243903</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1560975609756098</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="R9">
-        <v>0.08292682926829269</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="S9">
-        <v>0.4048780487804878</v>
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1246031746031746</v>
+        <v>0.1253731343283582</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02222222222222222</v>
+        <v>0.02313432835820895</v>
       </c>
       <c r="E10">
-        <v>0.0007936507936507937</v>
+        <v>0.0007462686567164179</v>
       </c>
       <c r="F10">
-        <v>0.05952380952380952</v>
+        <v>0.06044776119402985</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.119047619047619</v>
+        <v>0.1134328358208955</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0253968253968254</v>
+        <v>0.02462686567164179</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2261904761904762</v>
+        <v>0.2291044776119403</v>
       </c>
       <c r="R10">
-        <v>0.07698412698412699</v>
+        <v>0.0791044776119403</v>
       </c>
       <c r="S10">
-        <v>0.3452380952380952</v>
+        <v>0.3440298507462687</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1508196721311476</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07868852459016394</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="K11">
-        <v>0.1836065573770492</v>
+        <v>0.1746987951807229</v>
       </c>
       <c r="L11">
-        <v>0.5836065573770491</v>
+        <v>0.5993975903614458</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003278688524590164</v>
+        <v>0.003012048192771084</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7914438502673797</v>
+        <v>0.8028846153846154</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1443850267379679</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="K12">
-        <v>0.0053475935828877</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="L12">
-        <v>0.03208556149732621</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0267379679144385</v>
+        <v>0.02884615384615385</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6888888888888889</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2888888888888889</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.008888888888888889</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1555555555555556</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="I15">
-        <v>0.08444444444444445</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="J15">
-        <v>0.3244444444444444</v>
+        <v>0.3208333333333334</v>
       </c>
       <c r="K15">
-        <v>0.05777777777777778</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01777777777777778</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05333333333333334</v>
+        <v>0.05</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2977777777777778</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.003891050583657588</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1945525291828794</v>
+        <v>0.2021660649819494</v>
       </c>
       <c r="I16">
-        <v>0.09727626459143969</v>
+        <v>0.09386281588447654</v>
       </c>
       <c r="J16">
-        <v>0.3618677042801556</v>
+        <v>0.3574007220216607</v>
       </c>
       <c r="K16">
-        <v>0.1245136186770428</v>
+        <v>0.1263537906137184</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01167315175097276</v>
+        <v>0.01083032490974729</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0622568093385214</v>
+        <v>0.06137184115523465</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1439688715953307</v>
+        <v>0.1444043321299639</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01731601731601732</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.20995670995671</v>
+        <v>0.2024291497975708</v>
       </c>
       <c r="I17">
-        <v>0.0735930735930736</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J17">
-        <v>0.4199134199134199</v>
+        <v>0.4170040485829959</v>
       </c>
       <c r="K17">
-        <v>0.09740259740259741</v>
+        <v>0.1032388663967611</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01515151515151515</v>
+        <v>0.01417004048582996</v>
       </c>
       <c r="N17">
-        <v>0.004329004329004329</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="O17">
-        <v>0.05194805194805195</v>
+        <v>0.05060728744939271</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1103896103896104</v>
+        <v>0.1133603238866397</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0155440414507772</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2435233160621762</v>
+        <v>0.2355769230769231</v>
       </c>
       <c r="I18">
-        <v>0.09326424870466321</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="J18">
-        <v>0.4404145077720207</v>
+        <v>0.4471153846153846</v>
       </c>
       <c r="K18">
-        <v>0.08808290155440414</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01036269430051814</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0155440414507772</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09326424870466321</v>
+        <v>0.09134615384615384</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01354581673306773</v>
+        <v>0.01420029895366218</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2127490039840637</v>
+        <v>0.2085201793721973</v>
       </c>
       <c r="I19">
-        <v>0.08685258964143426</v>
+        <v>0.08819133034379671</v>
       </c>
       <c r="J19">
-        <v>0.3657370517928287</v>
+        <v>0.3684603886397608</v>
       </c>
       <c r="K19">
-        <v>0.1083665338645418</v>
+        <v>0.109118086696562</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02310756972111554</v>
+        <v>0.02316890881913303</v>
       </c>
       <c r="N19">
-        <v>0.001593625498007968</v>
+        <v>0.001494768310911809</v>
       </c>
       <c r="O19">
-        <v>0.06772908366533864</v>
+        <v>0.06801195814648729</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1203187250996016</v>
+        <v>0.1188340807174888</v>
       </c>
     </row>
   </sheetData>
